--- a/kenya_sut/optimization/optimization.xlsx
+++ b/kenya_sut/optimization/optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E3D61B-D278-449F-A973-A1FABC6C288F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF8EFD-31C5-4F4D-A805-1922B2DFC1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="10">
         <v>5</v>

--- a/kenya_sut/optimization/optimization.xlsx
+++ b/kenya_sut/optimization/optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF8EFD-31C5-4F4D-A805-1922B2DFC1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282C309-8C8C-4770-B1FB-6F954A70EEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>Scenario</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Land Consumption</t>
+  </si>
+  <si>
+    <t>pulp</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1500,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -1617,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
